--- a/database/fecha_blending.xlsx
+++ b/database/fecha_blending.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelcueto/Documents/proyectos/trazavilidad-VetaDorada/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelcueto/Documents/proyectos/trazavilidad-VetaDorada/version1.0/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2931152F-1D3E-3045-94BC-CE33C362F25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53446C5-5689-7E4E-8B0C-70338543444F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="1020" windowWidth="33880" windowHeight="19600" xr2:uid="{4C756012-7ACB-C14D-962D-6F4F034EB972}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -79,9 +79,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,15 +405,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8210449A-B27D-E645-91BC-9BB4AFBA6690}">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -419,1401 +427,2034 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>45659.229166666664</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>88.779999999911496</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>45659.541666666664</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>268.530000000028</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>45660.041666666664</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>192.280000000028</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>45660.399305555555</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>77.479999999981402</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>45660.541666666664</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>53.9400000000605</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>45660.65625</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>214.17999999993481</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>45661.041666666664</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>75.979999999981402</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>45661.190972222219</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>116.5200000000186</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>45661.427083333336</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>65.160000000032596</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>45661.541666666664</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>206.75</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>45661.920138888891</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>63.369999999995343</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>45662.041666666664</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>57.119999999995343</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>45662.166666666664</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>7</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>209.55999999993949</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>45662.541666666664</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>7</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>65.940000000060536</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>45662.666666666664</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>8</v>
       </c>
-      <c r="C16">
-        <v>126.8699999999953</v>
+      <c r="C16" s="4">
+        <v>126.869999999995</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>45662.90625</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>9</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>73.489999999990687</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>45663.041666666664</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>9</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>219.06000000005591</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>45663.440972222219</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>10</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>54.57999999995809</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>45663.541666666664</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>10</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>74.25</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>45663.680555555555</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>11</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>200.93999999994409</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>45664.041666666664</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>11</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>75.790000000037253</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>45664.1875</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>12</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>113.4599999999627</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>45664.409722222219</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>13</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <v>73.900000000023283</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>45664.541666666664</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>13</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="4">
         <v>190.98999999999069</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>45664.902777777781</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>14</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="4">
         <v>78.660000000032596</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>45665.041666666664</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>14</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="4">
         <v>43.309999999939457</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>45665.135416666664</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>15</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="4">
         <v>221.76000000000931</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>45665.541666666664</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>15</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <v>36.900000000023283</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>45665.618055555555</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>16</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="4">
         <v>119.9699999999721</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>45665.861111111109</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>17</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="4">
         <v>96.440000000060536</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>45666.041666666664</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>17</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="4">
         <v>166.390000000014</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>45666.361111111109</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>18</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="4">
         <v>94.989999999990687</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>45666.541666666664</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>18</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="4">
         <v>36.869999999995343</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>45666.625</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>19</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="4">
         <v>230.42999999993481</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>45667.041666666664</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>19</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="4">
         <v>23.9100000000326</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>45667.097222222219</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>20</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="4">
         <v>121.96000000007921</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>45667.340277777781</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>21</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="4">
         <v>108.93999999994411</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>45667.541666666664</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>21</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="4">
         <v>154.56000000005591</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>45667.834722222222</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>22</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="4">
         <v>81.909999999916181</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>45668.041666666664</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>22</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="4">
         <v>174.57000000006519</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>45668.375</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>23</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="4">
         <v>92.760000000009313</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>45668.541666666664</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>23</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="4">
         <v>159.9799999999814</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>45668.852777777778</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>24</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="4">
         <v>102.78999999992079</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>45669.041666666664</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>24</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="4">
         <v>14.28000000002794</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>45669.069444444445</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>25</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="4">
         <v>259.15000000002328</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>45669.541666666664</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>25</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="4">
         <v>26.5899999999674</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>45669.597222222219</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>26</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="4">
         <v>121.609999999986</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>45669.845138888886</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>27</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="4">
         <v>107.2300000000978</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>45670.041666666664</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>27</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="4">
         <v>144.41999999992549</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>45670.309027777781</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>28</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="4">
         <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>45670.541666666664</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>28</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="4">
         <v>16.290000000037249</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>45670.573611111111</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <v>29</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="4">
         <v>239.53000000002791</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>45671.041666666664</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="3">
         <v>29</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="4">
         <v>32.32999999995809</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>45671.106249999997</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="3">
         <v>30</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="4">
         <v>112.859999999986</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>45671.308333333334</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="3">
         <v>31</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="4">
         <v>101.2299999999814</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>45671.541666666664</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>31</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="4">
         <v>175.94000000006051</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>45671.893055555556</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <v>32</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="4">
         <v>90.630000000004657</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>45672.041666666664</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
         <v>32</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="4">
         <v>32.589999999967397</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>45672.125</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="3">
         <v>33</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="4">
         <v>218.84999999997669</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>45672.541666666664</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
         <v>33</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="4">
         <v>85.080000000074506</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>45672.701388888891</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="3">
         <v>34</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="4">
         <v>120.30999999993951</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>45672.947916666664</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="3">
         <v>35</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="4">
         <v>59.180000000051223</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>45673.041666666664</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="3">
         <v>35</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="4">
         <v>195.609999999986</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>45673.541666666664</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="3">
         <v>35</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="4">
         <v>40.669999999925487</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>45673.628472222219</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="3">
         <v>36</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="4">
         <v>219.93000000005119</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>45674.041666666664</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="3">
         <v>36</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="4">
         <v>249.93000000005119</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+      <c r="A68" s="2">
         <v>45674.541666666664</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="3">
         <v>36</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="4">
         <v>17.86999999999534</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+      <c r="A69" s="2">
         <v>45674.575694444444</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="3">
         <v>37</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="4">
         <v>118.9599999999627</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+      <c r="A70" s="2">
         <v>45674.802083333336</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="3">
         <v>38</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="4">
         <v>131.03000000002791</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+      <c r="A71" s="2">
         <v>45675.041666666664</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="3">
         <v>38</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="4">
         <v>127.2600000000093</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+      <c r="A72" s="2">
         <v>45675.284722222219</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="3">
         <v>39</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="4">
         <v>118.3399999999674</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+      <c r="A73" s="2">
         <v>45675.53125</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="3">
         <v>40</v>
       </c>
-      <c r="C73">
-        <v>7.4399999999441206</v>
+      <c r="C73" s="4">
+        <v>7.4399999999441198</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+      <c r="A74" s="2">
         <v>45675.541666666664</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="3">
         <v>40</v>
       </c>
-      <c r="C74">
-        <v>258.46000000007922</v>
+      <c r="C74" s="4">
+        <v>258.46000000007899</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+      <c r="A75" s="2">
         <v>45676.020833333336</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="3">
         <v>41</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="4">
         <v>14.48999999999069</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+      <c r="A76" s="2">
         <v>45676.041666666664</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="3">
         <v>41</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="4">
         <v>97.60999999998603</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+      <c r="A77" s="2">
         <v>45676.236111111109</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="3">
         <v>42</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="4">
         <v>149.390000000014</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+      <c r="A78" s="2">
         <v>45676.541666666664</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="3">
         <v>42</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="4">
         <v>109.7700000000186</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+      <c r="A79" s="2">
         <v>45676.770833333336</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="3">
         <v>43</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="4">
         <v>139.98999999999069</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+      <c r="A80" s="2">
         <v>45677.041666666664</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="3">
         <v>44</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="4">
         <v>248.57999999995809</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+      <c r="A81" s="2">
         <v>45677.541666666664</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="3">
         <v>44</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="4">
         <v>64.150000000023283</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+      <c r="A82" s="2">
         <v>45677.679166666669</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="3">
         <v>45</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="4">
         <v>123.6300000000047</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+      <c r="A83" s="2">
         <v>45677.918749999997</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="3">
         <v>46</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="4">
         <v>60.799999999930151</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+      <c r="A84" s="2">
         <v>45678.041666666664</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="3">
         <v>46</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="4">
         <v>212.53000000002791</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+      <c r="A85" s="2">
         <v>45678.440972222219</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="3">
         <v>47</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="4">
         <v>57.53000000002794</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+      <c r="A86" s="2">
         <v>45678.541666666664</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="3">
         <v>47</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="4">
         <v>61.64000000001397</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+      <c r="A87" s="2">
         <v>45678.668749999997</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="3">
         <v>48</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="4">
         <v>203.0200000000186</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+      <c r="A88" s="2">
         <v>45679.041666666664</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="3">
         <v>48</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="4">
         <v>80.769999999902211</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+      <c r="A89" s="2">
         <v>45679.205555555556</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="3">
         <v>49</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="4">
         <v>125.3699999999953</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+      <c r="A90" s="2">
         <v>45679.447916666664</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="3">
         <v>50</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="4">
         <v>56.03000000002794</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+      <c r="A91" s="2">
         <v>45679.541666666664</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="3">
         <v>50</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="4">
         <v>226.95000000006979</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+      <c r="A92" s="2">
         <v>45680</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="3">
         <v>51</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="4">
         <v>22.169999999925491</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+      <c r="A93" s="2">
         <v>45680.041666666664</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="3">
         <v>51</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="4">
         <v>117.55000000004659</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+      <c r="A94" s="2">
         <v>45680.268055555556</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="3">
         <v>52</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="4">
         <v>153.56999999994881</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+      <c r="A95" s="2">
         <v>45680.541666666664</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="3">
         <v>52</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="4">
         <v>110.2399999999907</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+      <c r="A96" s="2">
         <v>45680.743055555555</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="3">
         <v>53</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="4">
         <v>127.4100000000326</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+      <c r="A97" s="2">
         <v>45680.982638888891</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="3">
         <v>54</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="4">
         <v>30.98999999999069</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+      <c r="A98" s="2">
         <v>45681.041666666664</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="3">
         <v>54</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="4">
         <v>240.57000000006519</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+      <c r="A99" s="2">
         <v>45681.493055555555</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="3">
         <v>55</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="4">
         <v>30.75</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+      <c r="A100" s="2">
         <v>45681.541666666664</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="3">
         <v>55</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="4">
         <v>243.26999999990221</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+      <c r="A101" s="2">
         <v>45682.024305555555</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="3">
         <v>56</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="4">
         <v>10.4900000001071</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+      <c r="A102" s="2">
         <v>45682.041666666664</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="3">
         <v>56</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="4">
         <v>183.15999999991621</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+      <c r="A103" s="2">
         <v>45682.392361111109</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="3">
         <v>57</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="4">
         <v>83.020000000018626</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
+      <c r="A104" s="2">
         <v>45682.541666666664</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="3">
         <v>57</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="4">
         <v>37.050000000046573</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
+      <c r="A105" s="2">
         <v>45682.625</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="3">
         <v>58</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="4">
         <v>222.29999999993021</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
+      <c r="A106" s="2">
         <v>45683.041666666664</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="3">
         <v>58</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="4">
         <v>63.930000000051223</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
+      <c r="A107" s="2">
         <v>45683.165277777778</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="3">
         <v>59</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="4">
         <v>124.7399999999907</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
+      <c r="A108" s="2">
         <v>45683.413194444445</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="3">
         <v>60</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="4">
         <v>73.64000000001397</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
+      <c r="A109" s="2">
         <v>45683.541666666664</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="3">
         <v>60</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="4">
         <v>209.61999999999529</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
+      <c r="A110" s="2">
         <v>45683.927083333336</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="3">
         <v>61</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="4">
         <v>61.299999999930151</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
+      <c r="A111" s="2">
         <v>45684.041666666664</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="3">
         <v>61</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="4">
         <v>66.680000000051223</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
+      <c r="A112" s="2">
         <v>45684.173611111109</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="3">
         <v>62</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="4">
         <v>232.7700000000186</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
+      <c r="A113" s="2">
         <v>45684.541666666664</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="3">
         <v>62</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="4">
         <v>30.75</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
+      <c r="A114" s="2">
         <v>45684.677083333336</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="3">
         <v>63</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="4">
         <v>137.32999999995809</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
+      <c r="A115" s="2">
         <v>45684.95416666667</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="3">
         <v>64</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="4">
         <v>54.650000000023283</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
+      <c r="A116" s="2">
         <v>45685.041666666664</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="3">
         <v>64</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="4">
         <v>232.54000000003731</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
+      <c r="A117" s="2">
         <v>45685.493055555555</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="3">
         <v>65</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="4">
         <v>28.189999999944121</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
+      <c r="A118" s="2">
         <v>45685.541666666664</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="3">
         <v>65</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="4">
         <v>246.71000000007919</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
+      <c r="A119" s="2">
         <v>45686.013194444444</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="3">
         <v>66</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="4">
         <v>19.71999999997206</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
+      <c r="A120" s="2">
         <v>45686.041666666664</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="3">
         <v>66</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="4">
         <v>105.859999999986</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
+      <c r="A121" s="2">
         <v>45686.256944444445</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="3">
         <v>67</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="4">
         <v>152.29000000003731</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
+      <c r="A122" s="2">
         <v>45686.541666666664</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="3">
         <v>67</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="4">
         <v>107.0099999998929</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
+      <c r="A123" s="2">
         <v>45686.755555555559</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="3">
         <v>68</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="4">
         <v>158.48000000009779</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
+      <c r="A124" s="2">
         <v>45687.041666666664</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="3">
         <v>68</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="4">
         <v>112.5799999999581</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
+      <c r="A125" s="2">
         <v>45687.267361111109</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="3">
         <v>69</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="4">
         <v>121.9000000000233</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
+      <c r="A126" s="2">
         <v>45687.503472222219</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="3">
         <v>70</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="4">
         <v>21.789999999920841</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
+      <c r="A127" s="2">
         <v>45687.541666666664</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="3">
         <v>70</v>
       </c>
-      <c r="C127">
-        <v>205.2700000000186</v>
+      <c r="C127" s="4">
+        <v>205.270000000019</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
+      <c r="A128" s="2">
         <v>45687.951388888891</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="3">
         <v>71</v>
       </c>
-      <c r="C128">
-        <v>49.830000000074513</v>
-      </c>
+      <c r="C128" s="4">
+        <v>49.830000000074499</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>45690.447916666664</v>
+      </c>
+      <c r="B129" s="3">
+        <v>72</v>
+      </c>
+      <c r="C129" s="4">
+        <v>258.21574100000009</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>45691.995138888888</v>
+      </c>
+      <c r="B130" s="3">
+        <v>73</v>
+      </c>
+      <c r="C130" s="4">
+        <v>264.03585299999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>45692.479166666664</v>
+      </c>
+      <c r="B131" s="3">
+        <v>74</v>
+      </c>
+      <c r="C131" s="4">
+        <v>296.06754699999993</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>45692.090277777781</v>
+      </c>
+      <c r="B132" s="3">
+        <v>75</v>
+      </c>
+      <c r="C132" s="4">
+        <v>448.31841600000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>45693.989583333336</v>
+      </c>
+      <c r="B133" s="3">
+        <v>76</v>
+      </c>
+      <c r="C133" s="4">
+        <v>369.913657</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>45694.690972222219</v>
+      </c>
+      <c r="B134" s="3">
+        <v>77</v>
+      </c>
+      <c r="C134" s="4">
+        <v>308.17304999999993</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>45694.350694444445</v>
+      </c>
+      <c r="B135" s="3">
+        <v>78</v>
+      </c>
+      <c r="C135" s="4">
+        <v>120.01090699999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
+        <v>45695.572916666664</v>
+      </c>
+      <c r="B136" s="3">
+        <v>79</v>
+      </c>
+      <c r="C136" s="4">
+        <v>265.57674400000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <v>45695.041666666664</v>
+      </c>
+      <c r="B137" s="3">
+        <v>80</v>
+      </c>
+      <c r="C137" s="4">
+        <v>122.94896900000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
+        <v>45695.271527777775</v>
+      </c>
+      <c r="B138" s="3">
+        <v>81</v>
+      </c>
+      <c r="C138" s="4">
+        <v>303.53536099999997</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <v>45696.847222222219</v>
+      </c>
+      <c r="B139" s="3">
+        <v>82</v>
+      </c>
+      <c r="C139" s="4">
+        <v>120.56535800000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
+        <v>45696.072916666664</v>
+      </c>
+      <c r="B140" s="3">
+        <v>83</v>
+      </c>
+      <c r="C140" s="4">
+        <v>290.24426800000003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <v>45696.729166666664</v>
+      </c>
+      <c r="B141" s="3">
+        <v>84</v>
+      </c>
+      <c r="C141" s="4">
+        <v>120.96001399999997</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
+        <v>45697.961805555555</v>
+      </c>
+      <c r="B142" s="3">
+        <v>85</v>
+      </c>
+      <c r="C142" s="4">
+        <v>251.99620300000004</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
+        <v>45697.532638888886</v>
+      </c>
+      <c r="B143" s="3">
+        <v>86</v>
+      </c>
+      <c r="C143" s="4">
+        <v>122.31436899999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>45698.875</v>
+      </c>
+      <c r="B144" s="3">
+        <v>87</v>
+      </c>
+      <c r="C144" s="4">
+        <v>277.7147710000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>45698.409722222219</v>
+      </c>
+      <c r="B145" s="3">
+        <v>88</v>
+      </c>
+      <c r="C145" s="4">
+        <v>122.64730700000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>45699.638888888891</v>
+      </c>
+      <c r="B146" s="3">
+        <v>89</v>
+      </c>
+      <c r="C146" s="4">
+        <v>251.86499700000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>45699.161111111112</v>
+      </c>
+      <c r="B147" s="3">
+        <v>90</v>
+      </c>
+      <c r="C147" s="4">
+        <v>120.172093</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
+        <v>45699.413194444445</v>
+      </c>
+      <c r="B148" s="3">
+        <v>91</v>
+      </c>
+      <c r="C148" s="4">
+        <v>254.36122599999993</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>45700.892361111109</v>
+      </c>
+      <c r="B149" s="3">
+        <v>92</v>
+      </c>
+      <c r="C149" s="4">
+        <v>249.59703599999997</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>45700.439583333333</v>
+      </c>
+      <c r="B150" s="3">
+        <v>93</v>
+      </c>
+      <c r="C150" s="4">
+        <v>121.97215800000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
+        <v>45701.684027777781</v>
+      </c>
+      <c r="B151" s="3">
+        <v>94</v>
+      </c>
+      <c r="C151" s="4">
+        <v>247.28609299999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>45701.20416666667</v>
+      </c>
+      <c r="B152" s="3">
+        <v>95</v>
+      </c>
+      <c r="C152" s="4">
+        <v>115.04277400000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>45701.447222222225</v>
+      </c>
+      <c r="B153" s="3">
+        <v>96</v>
+      </c>
+      <c r="C153" s="4">
+        <v>232.74074399999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>45702.927083333336</v>
+      </c>
+      <c r="B154" s="3">
+        <v>97</v>
+      </c>
+      <c r="C154" s="4">
+        <v>248.896897</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
+        <v>45702.373611111114</v>
+      </c>
+      <c r="B155" s="3">
+        <v>98</v>
+      </c>
+      <c r="C155" s="4">
+        <v>125.00315399999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
+        <v>45703.649305555555</v>
+      </c>
+      <c r="B156" s="3">
+        <v>99</v>
+      </c>
+      <c r="C156" s="4">
+        <v>255.32476800000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
+        <v>45703.184027777781</v>
+      </c>
+      <c r="B157" s="3">
+        <v>100</v>
+      </c>
+      <c r="C157" s="4">
+        <v>119.741871</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>45703.416666666664</v>
+      </c>
+      <c r="B158" s="3">
+        <v>101</v>
+      </c>
+      <c r="C158" s="4">
+        <v>251.18425200000004</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>45704.958333333336</v>
+      </c>
+      <c r="B159" s="3">
+        <v>102</v>
+      </c>
+      <c r="C159" s="4">
+        <v>119.01532899999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>45704.1875</v>
+      </c>
+      <c r="B160" s="3">
+        <v>103</v>
+      </c>
+      <c r="C160" s="4">
+        <v>250.68440300000003</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>45705.666666666664</v>
+      </c>
+      <c r="B161" s="3">
+        <v>104</v>
+      </c>
+      <c r="C161" s="4">
+        <v>251.09628300000006</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>45705.15625</v>
+      </c>
+      <c r="B162" s="3">
+        <v>105</v>
+      </c>
+      <c r="C162" s="4">
+        <v>319.55930199999989</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>45706.753472222219</v>
+      </c>
+      <c r="B163" s="3">
+        <v>106</v>
+      </c>
+      <c r="C163" s="4">
+        <v>120.16657000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>45707.013888888891</v>
+      </c>
+      <c r="B164" s="3">
+        <v>107</v>
+      </c>
+      <c r="C164" s="4">
+        <v>575.10003000000017</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>45707.145833333336</v>
+      </c>
+      <c r="B165" s="3">
+        <v>108</v>
+      </c>
+      <c r="C165" s="4">
+        <v>119.53886199999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>45708.392361111109</v>
+      </c>
+      <c r="B166" s="3">
+        <v>109</v>
+      </c>
+      <c r="C166" s="4">
+        <v>409.37325000000004</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>45708.243055555555</v>
+      </c>
+      <c r="B167" s="3">
+        <v>110</v>
+      </c>
+      <c r="C167" s="4">
+        <v>120.70552900000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <v>45709.527777777781</v>
+      </c>
+      <c r="B168" s="3">
+        <v>111</v>
+      </c>
+      <c r="C168" s="4">
+        <v>437.335463</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>45709.375</v>
+      </c>
+      <c r="B169" s="3">
+        <v>112</v>
+      </c>
+      <c r="C169" s="4">
+        <v>104.26946000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
+        <v>45710.595138888886</v>
+      </c>
+      <c r="B170" s="3">
+        <v>113</v>
+      </c>
+      <c r="C170" s="4">
+        <v>251.55873000000005</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <v>45710.104166666664</v>
+      </c>
+      <c r="B171" s="3">
+        <v>114</v>
+      </c>
+      <c r="C171" s="4">
+        <v>122.71466800000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>45710.350694444445</v>
+      </c>
+      <c r="B172" s="3">
+        <v>115</v>
+      </c>
+      <c r="C172" s="4">
+        <v>253.45395699999997</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <v>45711.864583333336</v>
+      </c>
+      <c r="B173" s="3">
+        <v>116</v>
+      </c>
+      <c r="C173" s="4">
+        <v>256.92162499999995</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
+        <v>45711.385416666664</v>
+      </c>
+      <c r="B174" s="3">
+        <v>117</v>
+      </c>
+      <c r="C174" s="4">
+        <v>115.049942</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
+        <v>45712.618055555555</v>
+      </c>
+      <c r="B175" s="3">
+        <v>118</v>
+      </c>
+      <c r="C175" s="4">
+        <v>262.972148</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
+        <v>45712.149305555555</v>
+      </c>
+      <c r="B176" s="3">
+        <v>119</v>
+      </c>
+      <c r="C176" s="4">
+        <v>108.48070800000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
+        <v>45713.395138888889</v>
+      </c>
+      <c r="B177" s="3">
+        <v>120</v>
+      </c>
+      <c r="C177" s="4">
+        <v>496.4244579999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>45713.364583333336</v>
+      </c>
+      <c r="B178" s="3">
+        <v>121</v>
+      </c>
+      <c r="C178" s="4">
+        <v>281.44028899999995</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
+        <v>45714.916666666664</v>
+      </c>
+      <c r="B179" s="3">
+        <v>122</v>
+      </c>
+      <c r="C179" s="4">
+        <v>268.356043</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
+        <v>45715.4375</v>
+      </c>
+      <c r="B180" s="3">
+        <v>123</v>
+      </c>
+      <c r="C180" s="4">
+        <v>358.81621099999995</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="2">
+        <v>45715.152777777781</v>
+      </c>
+      <c r="B181" s="3">
+        <v>124</v>
+      </c>
+      <c r="C181" s="4">
+        <v>363.788252</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
+        <v>45716.822916666664</v>
+      </c>
+      <c r="B182" s="3">
+        <v>125</v>
+      </c>
+      <c r="C182" s="4">
+        <v>330.083732</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="2">
+        <v>45716.423611111109</v>
+      </c>
+      <c r="B183" s="3">
+        <v>126</v>
+      </c>
+      <c r="C183" s="4">
+        <v>120.63626699999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
+        <v>45717.670138888891</v>
+      </c>
+      <c r="B184" s="3">
+        <v>127</v>
+      </c>
+      <c r="C184" s="4">
+        <v>216.86942899999997</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
+        <v>45717.076388888891</v>
+      </c>
+      <c r="B185" s="3">
+        <v>128</v>
+      </c>
+      <c r="C185" s="4">
+        <v>222.53327400000003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G187" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
